--- a/app/scoring_data.xlsx
+++ b/app/scoring_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>test 2</t>
+  </si>
+  <si>
+    <t>test 3</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,6 +746,26 @@
       </c>
       <c r="F16">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/app/scoring_data.xlsx
+++ b/app/scoring_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -42,46 +42,7 @@
     <t>mai</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>sample 2</t>
-  </si>
-  <si>
-    <t>sample 3</t>
-  </si>
-  <si>
     <t>sample 4</t>
-  </si>
-  <si>
-    <t>sample 5</t>
-  </si>
-  <si>
-    <t>sample 6</t>
-  </si>
-  <si>
-    <t>sample 7</t>
-  </si>
-  <si>
-    <t>sample 8</t>
-  </si>
-  <si>
-    <t>sample 9</t>
-  </si>
-  <si>
-    <t>sample 10</t>
-  </si>
-  <si>
-    <t>sample 11</t>
-  </si>
-  <si>
-    <t>test 2</t>
-  </si>
-  <si>
-    <t>test 3</t>
   </si>
 </sst>
 </file>
@@ -420,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +426,8 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>67</v>
+        <f>SUM(B2:E2)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,287 +447,8 @@
         <v>70</v>
       </c>
       <c r="F3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>71</v>
-      </c>
-      <c r="E4">
-        <v>70</v>
-      </c>
-      <c r="F4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>61</v>
-      </c>
-      <c r="C7">
-        <v>63</v>
-      </c>
-      <c r="D7">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>86</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>97</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
+        <f>SUM(B3:E3)</f>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +468,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>8</v>

--- a/app/scoring_data.xlsx
+++ b/app/scoring_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>sample 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
   </si>
 </sst>
 </file>
@@ -381,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +452,27 @@
       <c r="F3">
         <f>SUM(B3:E3)</f>
         <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B4:E4)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/app/scoring_data.xlsx
+++ b/app/scoring_data.xlsx
@@ -16,36 +16,669 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>handicap</t>
-  </si>
-  <si>
-    <t>day 1</t>
-  </si>
-  <si>
-    <t>day 2</t>
-  </si>
-  <si>
-    <t>day 3</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>jong</t>
-  </si>
-  <si>
-    <t>mai</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="221">
   <si>
     <t>sample 4</t>
   </si>
   <si>
-    <t xml:space="preserve">test </t>
+    <t xml:space="preserve">1)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebarra Quiachon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Am </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ej Casintahan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2)Pro </t>
+  </si>
+  <si>
+    <t>Yvon Bisera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3)Pro </t>
+  </si>
+  <si>
+    <t>Zannie boy Gialon</t>
+  </si>
+  <si>
+    <t>Eslaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4)Pro </t>
+  </si>
+  <si>
+    <t>Emillio Panimdi (Paid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick tan (Paid) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elee Bisera </t>
+  </si>
+  <si>
+    <t>Rj Gopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6)Pro </t>
+  </si>
+  <si>
+    <t>Jerson Balasabas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricar Candinato </t>
+  </si>
+  <si>
+    <t>Edison Tabalin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8)Pro </t>
+  </si>
+  <si>
+    <t>Jett Plete  (Paid)</t>
+  </si>
+  <si>
+    <t>Jr Racines (Paid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9)Pro </t>
+  </si>
+  <si>
+    <t>Nefrey Enimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10)Pro </t>
+  </si>
+  <si>
+    <t>Elmer Saban</t>
+  </si>
+  <si>
+    <t>Rex Zaragoza Jr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ian Matchado </t>
+  </si>
+  <si>
+    <t>Rundolf Martizano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12)Pro </t>
+  </si>
+  <si>
+    <t>Allan John Miñoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edwin Sanchez </t>
+  </si>
+  <si>
+    <t>Nelson Roa Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Miñoza </t>
+  </si>
+  <si>
+    <t>Raul Miñoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15)Pro </t>
+  </si>
+  <si>
+    <t>JJ Gamolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Am </t>
+  </si>
+  <si>
+    <t>Rolando Bregente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16)Pro </t>
+  </si>
+  <si>
+    <t>Johnnny Espares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17)Pro </t>
+  </si>
+  <si>
+    <t>Ferdie Aunzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18)Pro </t>
+  </si>
+  <si>
+    <t>Elmer Salvador</t>
+  </si>
+  <si>
+    <t>Ricky Pahang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaldy Salvador </t>
+  </si>
+  <si>
+    <t>Arnold Martizano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20)Pro </t>
+  </si>
+  <si>
+    <t>Romeo San Jose</t>
+  </si>
+  <si>
+    <t>Ric Mise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21)Pro </t>
+  </si>
+  <si>
+    <t>Allan Remata</t>
+  </si>
+  <si>
+    <t>Bong Lindo Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronald Yebes </t>
+  </si>
+  <si>
+    <t>Mike Masipag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23)Pro </t>
+  </si>
+  <si>
+    <t>Cris Saban</t>
+  </si>
+  <si>
+    <t>Johvannie Bacatcat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24)Pro </t>
+  </si>
+  <si>
+    <t>Eric Remata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Am </t>
+  </si>
+  <si>
+    <t>Apo Luna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25)Pro </t>
+  </si>
+  <si>
+    <t>Mafy Singson</t>
+  </si>
+  <si>
+    <t>Chad Borja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26)Pro </t>
+  </si>
+  <si>
+    <t>Edmar Salvador Jr</t>
+  </si>
+  <si>
+    <t>Niño Villacencio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgardo Ababa </t>
+  </si>
+  <si>
+    <t>Vincent Gumapac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miko Pactolerin </t>
+  </si>
+  <si>
+    <t>Joenard Pactolerin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29)Pro </t>
+  </si>
+  <si>
+    <t>Jhondie Quibol</t>
+  </si>
+  <si>
+    <t>Jonj Ortega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3o)Pro </t>
+  </si>
+  <si>
+    <t>Paul Echavez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joey De Asis </t>
+  </si>
+  <si>
+    <t>Felix Batucan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32)Pro </t>
+  </si>
+  <si>
+    <t>Albert Besira</t>
+  </si>
+  <si>
+    <t>Dave Pook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34)Pro </t>
+  </si>
+  <si>
+    <t>Ramil Bisera</t>
+  </si>
+  <si>
+    <t>Nathan Tan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35)Pro </t>
+  </si>
+  <si>
+    <t>Ian pacquin</t>
+  </si>
+  <si>
+    <t>Apollo algas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernard  Paquin  </t>
+  </si>
+  <si>
+    <t>Gabriel Tan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37)Pro </t>
+  </si>
+  <si>
+    <t>Leonard lofranco</t>
+  </si>
+  <si>
+    <t>Esnero Rel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38)Pro </t>
+  </si>
+  <si>
+    <t>Larry de asis Paid</t>
+  </si>
+  <si>
+    <t>Luisito de asis Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39)Pro </t>
+  </si>
+  <si>
+    <t>Andy bartolome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40)Pro </t>
+  </si>
+  <si>
+    <t>Arnie L Fernando</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genaro Basijan           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolando Revilleza  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Miguel Revilleza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Labajo </t>
+  </si>
+  <si>
+    <t>Juben Villarosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44)Pro </t>
+  </si>
+  <si>
+    <t>Pedot Remata(Paid)</t>
+  </si>
+  <si>
+    <t>Jonathan Suy (Paid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45)Pro </t>
+  </si>
+  <si>
+    <t>Rodrigo Decendario</t>
+  </si>
+  <si>
+    <t>Arnulfo Martizano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46)Pro </t>
+  </si>
+  <si>
+    <t>Rico Depilo</t>
+  </si>
+  <si>
+    <t>Romeo Lopes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47)Pro </t>
+  </si>
+  <si>
+    <t>Andy Bartolome</t>
+  </si>
+  <si>
+    <t>Aldrien Gialon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magno Anarcon </t>
+  </si>
+  <si>
+    <t>Vince Lusterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49)Pro </t>
+  </si>
+  <si>
+    <t>Lito Limbo</t>
+  </si>
+  <si>
+    <t>Mirk Limbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50)Pro </t>
+  </si>
+  <si>
+    <t>Juvic Pagunsan</t>
+  </si>
+  <si>
+    <t>Enzo Magno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51)Pro </t>
+  </si>
+  <si>
+    <t>Robert Pactolorin</t>
+  </si>
+  <si>
+    <t>Bianca  Cuevas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52)Pro </t>
+  </si>
+  <si>
+    <t>Reymon Jaraula Paid</t>
+  </si>
+  <si>
+    <t>Pudin Bahlan Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53)Pro </t>
+  </si>
+  <si>
+    <t>Ronnie Casas Paid</t>
+  </si>
+  <si>
+    <t>Ranel Glimada Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupert Zaragosa </t>
+  </si>
+  <si>
+    <t>Michael Lim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Song (Paid) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suyama Hayate (Paid) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56)Pro </t>
+  </si>
+  <si>
+    <t>Ernie Fernando</t>
+  </si>
+  <si>
+    <t>Kenneth Naro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57)Pro </t>
+  </si>
+  <si>
+    <t>Robert Pactolerin</t>
+  </si>
+  <si>
+    <t>Bobe Salahog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonny Villaber  </t>
+  </si>
+  <si>
+    <t>Joseph Ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isagani Salebat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Batao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60)Pro </t>
+  </si>
+  <si>
+    <t>Filisimo Labajo</t>
+  </si>
+  <si>
+    <t>Tony Batao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aandreo Albarillo </t>
+  </si>
+  <si>
+    <t>Sonny Sulampong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62)Pro </t>
+  </si>
+  <si>
+    <t>Joseph Labajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim Panagiton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Villaver  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefferson Tico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">64)Pro </t>
+  </si>
+  <si>
+    <t>Edmar Salvador Sr.</t>
+  </si>
+  <si>
+    <t>Jomar Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65)Pro </t>
+  </si>
+  <si>
+    <t>Dino villanueva</t>
+  </si>
+  <si>
+    <t>Cris Pila Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronald yebes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">67)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocoy aunzo </t>
+  </si>
+  <si>
+    <t>Mike masipag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68) Pro </t>
+  </si>
+  <si>
+    <t>Jeffrey Lumbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am </t>
+  </si>
+  <si>
+    <t>Marc Salazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69)Pro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny spares </t>
+  </si>
+  <si>
+    <t>Don breganza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70)Pro </t>
+  </si>
+  <si>
+    <t>Rufino Bayron</t>
+  </si>
+  <si>
+    <t>Caezar Cabuhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71) Pro </t>
+  </si>
+  <si>
+    <t>Francis Lucero</t>
+  </si>
+  <si>
+    <t>Ronel Tagaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72) Pro </t>
+  </si>
+  <si>
+    <t>Arnold Villacencio</t>
+  </si>
+  <si>
+    <t>JB Estoesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73) Pro </t>
+  </si>
+  <si>
+    <t>Jonas Magcalayo</t>
+  </si>
+  <si>
+    <t>John Bernis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74) Pro </t>
+  </si>
+  <si>
+    <t>Rodelio Dela Cerna</t>
+  </si>
+  <si>
+    <t>Neil Canedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75) Pro </t>
+  </si>
+  <si>
+    <t>Randy Saban</t>
+  </si>
+  <si>
+    <t>Jun Quijada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76)Pro </t>
+  </si>
+  <si>
+    <t>Kureish Samanodi</t>
+  </si>
+  <si>
+    <t>James Flores</t>
   </si>
 </sst>
 </file>
@@ -81,7 +714,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -384,95 +1018,1208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A2:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <f>SUM(B2:E2)</f>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3">
-        <v>71</v>
-      </c>
-      <c r="E3">
-        <v>70</v>
-      </c>
-      <c r="F3">
-        <f>SUM(B3:E3)</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <f>SUM(B4:E4)</f>
-        <v>17</v>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +2239,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>8</v>

--- a/app/scoring_data.xlsx
+++ b/app/scoring_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="221">
   <si>
     <t>sample 4</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Nefrey Enimento</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">10)Pro </t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>James Flores</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B151"/>
+  <dimension ref="A2:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3:G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,1200 +1030,3459 @@
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>220</v>
+      <c r="C151" s="1">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/app/scoring_data.xlsx
+++ b/app/scoring_data.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A2:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G151"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,9 +1049,6 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1072,9 +1069,7 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1095,9 +1090,7 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1118,9 +1111,7 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1141,9 +1132,7 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1164,9 +1153,7 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1187,9 +1174,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1210,9 +1195,7 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1233,9 +1216,7 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1256,9 +1237,7 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1279,9 +1258,7 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1302,9 +1279,7 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1325,9 +1300,7 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1348,9 +1321,7 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1371,9 +1342,7 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1394,9 +1363,7 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1417,9 +1384,7 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1440,9 +1405,7 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1463,9 +1426,7 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1486,9 +1447,7 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1509,9 +1468,7 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1532,9 +1489,7 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1555,9 +1510,7 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1578,9 +1531,7 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1601,9 +1552,7 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1624,9 +1573,7 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1647,9 +1594,7 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1670,9 +1615,7 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1693,9 +1636,7 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1716,9 +1657,7 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1739,9 +1678,7 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1762,9 +1699,7 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1785,9 +1720,7 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1808,9 +1741,7 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1831,9 +1762,7 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1854,9 +1783,7 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1877,9 +1804,7 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1900,9 +1825,7 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1923,9 +1846,7 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1946,9 +1867,7 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1969,9 +1888,7 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1992,9 +1909,7 @@
       <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2015,9 +1930,7 @@
       <c r="F44" s="1">
         <v>0</v>
       </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -2038,9 +1951,7 @@
       <c r="F45" s="1">
         <v>0</v>
       </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2061,9 +1972,7 @@
       <c r="F46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -2084,9 +1993,7 @@
       <c r="F47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -2107,9 +2014,7 @@
       <c r="F48" s="1">
         <v>0</v>
       </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2130,9 +2035,7 @@
       <c r="F49" s="1">
         <v>0</v>
       </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -2153,9 +2056,7 @@
       <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -2176,9 +2077,7 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2199,9 +2098,7 @@
       <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -2222,9 +2119,7 @@
       <c r="F53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -2245,9 +2140,7 @@
       <c r="F54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -2268,9 +2161,7 @@
       <c r="F55" s="1">
         <v>0</v>
       </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -2291,9 +2182,7 @@
       <c r="F56" s="1">
         <v>0</v>
       </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -2314,9 +2203,7 @@
       <c r="F57" s="1">
         <v>0</v>
       </c>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -2337,9 +2224,7 @@
       <c r="F58" s="1">
         <v>0</v>
       </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -2360,9 +2245,7 @@
       <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -2383,9 +2266,7 @@
       <c r="F60" s="1">
         <v>0</v>
       </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -2406,9 +2287,7 @@
       <c r="F61" s="1">
         <v>0</v>
       </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2429,9 +2308,7 @@
       <c r="F62" s="1">
         <v>0</v>
       </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -2452,9 +2329,7 @@
       <c r="F63" s="1">
         <v>0</v>
       </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -2475,9 +2350,7 @@
       <c r="F64" s="1">
         <v>0</v>
       </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -2498,9 +2371,7 @@
       <c r="F65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -2521,9 +2392,7 @@
       <c r="F66" s="1">
         <v>0</v>
       </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -2544,9 +2413,7 @@
       <c r="F67" s="1">
         <v>0</v>
       </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -2567,9 +2434,7 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="1">
-        <v>0</v>
-      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -2590,9 +2455,7 @@
       <c r="F69" s="1">
         <v>0</v>
       </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -2613,9 +2476,7 @@
       <c r="F70" s="1">
         <v>0</v>
       </c>
-      <c r="G70" s="1">
-        <v>0</v>
-      </c>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -2636,9 +2497,7 @@
       <c r="F71" s="1">
         <v>0</v>
       </c>
-      <c r="G71" s="1">
-        <v>0</v>
-      </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2659,9 +2518,7 @@
       <c r="F72" s="1">
         <v>0</v>
       </c>
-      <c r="G72" s="1">
-        <v>0</v>
-      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -2682,9 +2539,7 @@
       <c r="F73" s="1">
         <v>0</v>
       </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -2705,9 +2560,7 @@
       <c r="F74" s="1">
         <v>0</v>
       </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2728,9 +2581,7 @@
       <c r="F75" s="1">
         <v>0</v>
       </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2751,9 +2602,7 @@
       <c r="F76" s="1">
         <v>0</v>
       </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -2774,9 +2623,7 @@
       <c r="F77" s="1">
         <v>0</v>
       </c>
-      <c r="G77" s="1">
-        <v>0</v>
-      </c>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -2797,9 +2644,7 @@
       <c r="F78" s="1">
         <v>0</v>
       </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -2820,9 +2665,7 @@
       <c r="F79" s="1">
         <v>0</v>
       </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -2843,9 +2686,7 @@
       <c r="F80" s="1">
         <v>0</v>
       </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -2866,9 +2707,7 @@
       <c r="F81" s="1">
         <v>0</v>
       </c>
-      <c r="G81" s="1">
-        <v>0</v>
-      </c>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2889,9 +2728,7 @@
       <c r="F82" s="1">
         <v>0</v>
       </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -2912,9 +2749,7 @@
       <c r="F83" s="1">
         <v>0</v>
       </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -2935,9 +2770,7 @@
       <c r="F84" s="1">
         <v>0</v>
       </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -2958,9 +2791,7 @@
       <c r="F85" s="1">
         <v>0</v>
       </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2981,9 +2812,7 @@
       <c r="F86" s="1">
         <v>0</v>
       </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -3004,9 +2833,7 @@
       <c r="F87" s="1">
         <v>0</v>
       </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -3027,9 +2854,7 @@
       <c r="F88" s="1">
         <v>0</v>
       </c>
-      <c r="G88" s="1">
-        <v>0</v>
-      </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -3050,9 +2875,7 @@
       <c r="F89" s="1">
         <v>0</v>
       </c>
-      <c r="G89" s="1">
-        <v>0</v>
-      </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -3073,9 +2896,7 @@
       <c r="F90" s="1">
         <v>0</v>
       </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -3096,9 +2917,7 @@
       <c r="F91" s="1">
         <v>0</v>
       </c>
-      <c r="G91" s="1">
-        <v>0</v>
-      </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -3119,9 +2938,7 @@
       <c r="F92" s="1">
         <v>0</v>
       </c>
-      <c r="G92" s="1">
-        <v>0</v>
-      </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -3142,9 +2959,7 @@
       <c r="F93" s="1">
         <v>0</v>
       </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -3165,9 +2980,7 @@
       <c r="F94" s="1">
         <v>0</v>
       </c>
-      <c r="G94" s="1">
-        <v>0</v>
-      </c>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -3188,9 +3001,7 @@
       <c r="F95" s="1">
         <v>0</v>
       </c>
-      <c r="G95" s="1">
-        <v>0</v>
-      </c>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -3211,9 +3022,7 @@
       <c r="F96" s="1">
         <v>0</v>
       </c>
-      <c r="G96" s="1">
-        <v>0</v>
-      </c>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -3234,9 +3043,7 @@
       <c r="F97" s="1">
         <v>0</v>
       </c>
-      <c r="G97" s="1">
-        <v>0</v>
-      </c>
+      <c r="G97" s="1"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -3257,9 +3064,7 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
+      <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -3280,9 +3085,7 @@
       <c r="F99" s="1">
         <v>0</v>
       </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
+      <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -3303,9 +3106,7 @@
       <c r="F100" s="1">
         <v>0</v>
       </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
+      <c r="G100" s="1"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -3326,9 +3127,7 @@
       <c r="F101" s="1">
         <v>0</v>
       </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
+      <c r="G101" s="1"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -3349,9 +3148,7 @@
       <c r="F102" s="1">
         <v>0</v>
       </c>
-      <c r="G102" s="1">
-        <v>0</v>
-      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -3372,9 +3169,7 @@
       <c r="F103" s="1">
         <v>0</v>
       </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
+      <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -3395,9 +3190,7 @@
       <c r="F104" s="1">
         <v>0</v>
       </c>
-      <c r="G104" s="1">
-        <v>0</v>
-      </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -3418,9 +3211,7 @@
       <c r="F105" s="1">
         <v>0</v>
       </c>
-      <c r="G105" s="1">
-        <v>0</v>
-      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -3441,9 +3232,7 @@
       <c r="F106" s="1">
         <v>0</v>
       </c>
-      <c r="G106" s="1">
-        <v>0</v>
-      </c>
+      <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -3464,9 +3253,7 @@
       <c r="F107" s="1">
         <v>0</v>
       </c>
-      <c r="G107" s="1">
-        <v>0</v>
-      </c>
+      <c r="G107" s="1"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -3487,9 +3274,7 @@
       <c r="F108" s="1">
         <v>0</v>
       </c>
-      <c r="G108" s="1">
-        <v>0</v>
-      </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -3510,9 +3295,7 @@
       <c r="F109" s="1">
         <v>0</v>
       </c>
-      <c r="G109" s="1">
-        <v>0</v>
-      </c>
+      <c r="G109" s="1"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -3533,9 +3316,7 @@
       <c r="F110" s="1">
         <v>0</v>
       </c>
-      <c r="G110" s="1">
-        <v>0</v>
-      </c>
+      <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -3556,9 +3337,7 @@
       <c r="F111" s="1">
         <v>0</v>
       </c>
-      <c r="G111" s="1">
-        <v>0</v>
-      </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -3579,9 +3358,7 @@
       <c r="F112" s="1">
         <v>0</v>
       </c>
-      <c r="G112" s="1">
-        <v>0</v>
-      </c>
+      <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -3602,9 +3379,7 @@
       <c r="F113" s="1">
         <v>0</v>
       </c>
-      <c r="G113" s="1">
-        <v>0</v>
-      </c>
+      <c r="G113" s="1"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -3625,9 +3400,7 @@
       <c r="F114" s="1">
         <v>0</v>
       </c>
-      <c r="G114" s="1">
-        <v>0</v>
-      </c>
+      <c r="G114" s="1"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -3648,9 +3421,7 @@
       <c r="F115" s="1">
         <v>0</v>
       </c>
-      <c r="G115" s="1">
-        <v>0</v>
-      </c>
+      <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -3671,9 +3442,7 @@
       <c r="F116" s="1">
         <v>0</v>
       </c>
-      <c r="G116" s="1">
-        <v>0</v>
-      </c>
+      <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -3694,9 +3463,7 @@
       <c r="F117" s="1">
         <v>0</v>
       </c>
-      <c r="G117" s="1">
-        <v>0</v>
-      </c>
+      <c r="G117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -3717,9 +3484,7 @@
       <c r="F118" s="1">
         <v>0</v>
       </c>
-      <c r="G118" s="1">
-        <v>0</v>
-      </c>
+      <c r="G118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -3740,9 +3505,7 @@
       <c r="F119" s="1">
         <v>0</v>
       </c>
-      <c r="G119" s="1">
-        <v>0</v>
-      </c>
+      <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -3763,9 +3526,7 @@
       <c r="F120" s="1">
         <v>0</v>
       </c>
-      <c r="G120" s="1">
-        <v>0</v>
-      </c>
+      <c r="G120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -3786,9 +3547,7 @@
       <c r="F121" s="1">
         <v>0</v>
       </c>
-      <c r="G121" s="1">
-        <v>0</v>
-      </c>
+      <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -3809,9 +3568,7 @@
       <c r="F122" s="1">
         <v>0</v>
       </c>
-      <c r="G122" s="1">
-        <v>0</v>
-      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -3832,9 +3589,7 @@
       <c r="F123" s="1">
         <v>0</v>
       </c>
-      <c r="G123" s="1">
-        <v>0</v>
-      </c>
+      <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -3855,9 +3610,7 @@
       <c r="F124" s="1">
         <v>0</v>
       </c>
-      <c r="G124" s="1">
-        <v>0</v>
-      </c>
+      <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -3878,9 +3631,7 @@
       <c r="F125" s="1">
         <v>0</v>
       </c>
-      <c r="G125" s="1">
-        <v>0</v>
-      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -3901,9 +3652,7 @@
       <c r="F126" s="1">
         <v>0</v>
       </c>
-      <c r="G126" s="1">
-        <v>0</v>
-      </c>
+      <c r="G126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -3924,9 +3673,7 @@
       <c r="F127" s="1">
         <v>0</v>
       </c>
-      <c r="G127" s="1">
-        <v>0</v>
-      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -3947,9 +3694,7 @@
       <c r="F128" s="1">
         <v>0</v>
       </c>
-      <c r="G128" s="1">
-        <v>0</v>
-      </c>
+      <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -3970,9 +3715,7 @@
       <c r="F129" s="1">
         <v>0</v>
       </c>
-      <c r="G129" s="1">
-        <v>0</v>
-      </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -3993,9 +3736,7 @@
       <c r="F130" s="1">
         <v>0</v>
       </c>
-      <c r="G130" s="1">
-        <v>0</v>
-      </c>
+      <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -4016,9 +3757,7 @@
       <c r="F131" s="1">
         <v>0</v>
       </c>
-      <c r="G131" s="1">
-        <v>0</v>
-      </c>
+      <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -4039,9 +3778,7 @@
       <c r="F132" s="1">
         <v>0</v>
       </c>
-      <c r="G132" s="1">
-        <v>0</v>
-      </c>
+      <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -4062,9 +3799,7 @@
       <c r="F133" s="1">
         <v>0</v>
       </c>
-      <c r="G133" s="1">
-        <v>0</v>
-      </c>
+      <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -4085,9 +3820,7 @@
       <c r="F134" s="1">
         <v>0</v>
       </c>
-      <c r="G134" s="1">
-        <v>0</v>
-      </c>
+      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -4108,9 +3841,7 @@
       <c r="F135" s="1">
         <v>0</v>
       </c>
-      <c r="G135" s="1">
-        <v>0</v>
-      </c>
+      <c r="G135" s="1"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -4131,9 +3862,7 @@
       <c r="F136" s="1">
         <v>0</v>
       </c>
-      <c r="G136" s="1">
-        <v>0</v>
-      </c>
+      <c r="G136" s="1"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -4154,9 +3883,7 @@
       <c r="F137" s="1">
         <v>0</v>
       </c>
-      <c r="G137" s="1">
-        <v>0</v>
-      </c>
+      <c r="G137" s="1"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -4177,9 +3904,7 @@
       <c r="F138" s="1">
         <v>0</v>
       </c>
-      <c r="G138" s="1">
-        <v>0</v>
-      </c>
+      <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -4200,9 +3925,7 @@
       <c r="F139" s="1">
         <v>0</v>
       </c>
-      <c r="G139" s="1">
-        <v>0</v>
-      </c>
+      <c r="G139" s="1"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -4223,9 +3946,7 @@
       <c r="F140" s="1">
         <v>0</v>
       </c>
-      <c r="G140" s="1">
-        <v>0</v>
-      </c>
+      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -4246,9 +3967,7 @@
       <c r="F141" s="1">
         <v>0</v>
       </c>
-      <c r="G141" s="1">
-        <v>0</v>
-      </c>
+      <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -4269,9 +3988,7 @@
       <c r="F142" s="1">
         <v>0</v>
       </c>
-      <c r="G142" s="1">
-        <v>0</v>
-      </c>
+      <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -4292,9 +4009,7 @@
       <c r="F143" s="1">
         <v>0</v>
       </c>
-      <c r="G143" s="1">
-        <v>0</v>
-      </c>
+      <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -4315,9 +4030,7 @@
       <c r="F144" s="1">
         <v>0</v>
       </c>
-      <c r="G144" s="1">
-        <v>0</v>
-      </c>
+      <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -4338,9 +4051,7 @@
       <c r="F145" s="1">
         <v>0</v>
       </c>
-      <c r="G145" s="1">
-        <v>0</v>
-      </c>
+      <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -4361,9 +4072,7 @@
       <c r="F146" s="1">
         <v>0</v>
       </c>
-      <c r="G146" s="1">
-        <v>0</v>
-      </c>
+      <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
@@ -4384,9 +4093,7 @@
       <c r="F147" s="1">
         <v>0</v>
       </c>
-      <c r="G147" s="1">
-        <v>0</v>
-      </c>
+      <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
@@ -4407,9 +4114,7 @@
       <c r="F148" s="1">
         <v>0</v>
       </c>
-      <c r="G148" s="1">
-        <v>0</v>
-      </c>
+      <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -4430,9 +4135,7 @@
       <c r="F149" s="1">
         <v>0</v>
       </c>
-      <c r="G149" s="1">
-        <v>0</v>
-      </c>
+      <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -4453,9 +4156,7 @@
       <c r="F150" s="1">
         <v>0</v>
       </c>
-      <c r="G150" s="1">
-        <v>0</v>
-      </c>
+      <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -4476,9 +4177,7 @@
       <c r="F151" s="1">
         <v>0</v>
       </c>
-      <c r="G151" s="1">
-        <v>0</v>
-      </c>
+      <c r="G151" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/scoring_data.xlsx
+++ b/app/scoring_data.xlsx
@@ -21,9 +21,6 @@
     <t>sample 4</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARCH 15 -16, 2024 </t>
-  </si>
-  <si>
     <t>NO.</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>1st GOV VICENTE  DUTERTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARCH 15 -16, 2025</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -783,7 +783,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -810,10 +810,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="5">
@@ -877,7 +877,7 @@
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="6">
@@ -941,7 +941,7 @@
         <v>36</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -949,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="7">
         <v>3</v>
@@ -1023,10 +1023,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="7">
         <v>4</v>
@@ -1097,10 +1097,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="7">
         <v>3</v>
@@ -1171,10 +1171,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
@@ -1245,10 +1245,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="D9" s="7">
         <v>4</v>
@@ -1319,10 +1319,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -1393,10 +1393,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="7">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="D12" s="7">
         <v>4</v>
@@ -1541,10 +1541,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="D13" s="7">
         <v>4</v>
@@ -1615,10 +1615,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" s="7">
         <v>4</v>
@@ -1689,10 +1689,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="7">
         <v>4</v>
@@ -1763,10 +1763,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="D16" s="7">
         <v>4</v>
@@ -1837,10 +1837,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="D17" s="7">
         <v>4</v>
@@ -1911,10 +1911,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="D18" s="7">
         <v>3</v>
@@ -1985,10 +1985,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D19" s="7">
         <v>3</v>
@@ -2059,10 +2059,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="D20" s="7">
         <v>4</v>
@@ -2133,10 +2133,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="D21" s="7">
         <v>4</v>
@@ -2207,10 +2207,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="D22" s="7">
         <v>5</v>
@@ -2281,10 +2281,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="D23" s="7">
         <v>4</v>
@@ -2355,10 +2355,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="D24" s="7">
         <v>4</v>
@@ -2429,10 +2429,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="D25" s="7">
         <v>4</v>
@@ -2503,10 +2503,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="D26" s="7">
         <v>3</v>
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="D27" s="7">
         <v>4</v>
@@ -2651,10 +2651,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="D28" s="7">
         <v>4</v>
@@ -2725,10 +2725,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="D29" s="7">
         <v>4</v>
@@ -2799,10 +2799,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="D30" s="7">
         <v>4</v>
@@ -2873,10 +2873,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="D31" s="7">
         <v>4</v>
@@ -2947,10 +2947,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="D32" s="7">
         <v>4</v>
@@ -3021,10 +3021,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D33" s="7">
         <v>4</v>
@@ -3095,10 +3095,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="D34" s="7">
         <v>4</v>
@@ -3169,10 +3169,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D35" s="7">
         <v>4</v>
@@ -3243,10 +3243,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="D36" s="7">
         <v>4</v>
@@ -3317,10 +3317,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="D37" s="7">
         <v>4</v>
@@ -3391,10 +3391,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="D38" s="7">
         <v>5</v>
@@ -3465,10 +3465,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="D39" s="7">
         <v>4</v>
@@ -3539,10 +3539,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D40" s="7">
         <v>4</v>
